--- a/biology/Histoire de la zoologie et de la botanique/British_Ecological_Society/British_Ecological_Society.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/British_Ecological_Society/British_Ecological_Society.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La British Ecological Society (BES) soutient les communautés scientifiques de recherches et d’enseignement afin qu’elles puissent continuer à être dynamiques et productives, de produire de nouvelles connaissances, de former des personnes qualifiées et d’améliorer la présence de l’écologie scientifique dans l’ensemble de la société.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire et objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La BES, fondée en 1913, a été la première société savante écologique dans le monde. L’objectif initial de la Société était de « promouvoir et de favoriser l’étude de l’écologie dans son sens le plus large », ce qui est toujours son but principal aujourd’hui. 
 </t>
@@ -542,12 +556,50 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société compte près de 4 000 membres, dont 14 % d’étudiants. Son audience est internationale et 38 % travaillent aujourd’hui à l’extérieur du Royaume-Uni dans un total de 92 pays.
-Présidents
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>British_Ecological_Society</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/British_Ecological_Society</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Présidents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1913–1914 Arthur Tansley
-1917-1918 William Gardner Smith[1]
+1917-1918 William Gardner Smith
 1920-1921 Richard Henry Yapp
 1921–1922 Robert Lloyd Praeger
 1923–1924 Frederick Ernest Weiss
@@ -591,31 +643,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>British_Ecological_Society</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/British_Ecological_Society</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son activité principale est la publication de revue scientifique. Le Journal of Ecology commence à paraître dès 1913 lors de la réunion inaugurale de la Société. D’autres journaux font être créés : Journal of Animal Ecology (1932), Journal of Applied Ecology (1964) et Functional Ecology (1987). Ces quatre revues primaires publient des articles en provenance du monde entier et sont à l’’avant-garde du développement de l’écologie. Le statut de membre de la BES donne droit à un tarif d’abonnement préférentiel.
 La Société organise, chaque année, plusieurs réunions importantes pour les écologistes. La réunion annuelle (Annual Meeting) attire chaque année 700 délégués et offre la possibilité aux congressistes de présenter des communications et des posters sur des sujets variés ; la participation active des étudiants a toujours été l’une de ses constantes. Cette rencontre attire de plus en plus des écologistes étrangers, principalement européens, et est devenue le plus important congrès d’écologie en Europe. 
@@ -624,31 +678,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>British_Ecological_Society</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/British_Ecological_Society</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>John Sheail (1987). Seventy-five years in ecology: the British Ecological Society, Blackwell Science : xiv + 301 p.  (ISBN 0-632-01917-4)</t>
         </is>
